--- a/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>DOMA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +778,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +810,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,23 +965,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -968,37 +995,43 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,37 +1043,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,52 +1105,58 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1126,37 +1169,43 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,23 +1233,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1213,23 +1265,26 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8600</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1242,8 +1297,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,52 +1425,58 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8600</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1416,8 +1489,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,23 +1521,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8600</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1474,42 +1553,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,26 +1620,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>411700</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1563,8 +1650,11 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1682,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>17400</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,22 +1746,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -1679,26 +1778,29 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1708,13 +1810,16 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>345000</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>345000</v>
@@ -1722,8 +1827,8 @@
       <c r="F47" s="3">
         <v>345000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>345000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -1737,66 +1842,75 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>35200</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>125400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,26 +1970,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>2000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,26 +2034,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>689100</v>
+      </c>
+      <c r="E54" s="3">
         <v>345700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>345800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>346300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
       </c>
@@ -1940,8 +2066,11 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,55 +2096,59 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>85300</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2024,25 +2158,28 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -2053,26 +2190,29 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2082,13 +2222,16 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>138700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2111,23 +2254,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E62" s="3">
         <v>35000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,26 +2382,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>307200</v>
+      </c>
+      <c r="E66" s="3">
         <v>36300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>42900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2256,8 +2414,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,25 +2556,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-148500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8700</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
@@ -2414,8 +2588,11 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,25 +2684,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>381900</v>
+      </c>
+      <c r="E76" s="3">
         <v>309300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>309700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>303500</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
@@ -2530,8 +2716,11 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,57 +2748,63 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8600</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -2622,8 +2817,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2863,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,23 +3023,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -2838,8 +3055,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,23 +3165,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-18400</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-345000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
@@ -2967,8 +3197,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3339,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>351800</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>346300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3403,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>302300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>DOMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
-        <v>43830</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E8" s="3">
         <v>162600</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="F8" s="3">
+        <v>109900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>109200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>117500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>104300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,31 +989,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E17" s="3">
         <v>187700</v>
       </c>
-      <c r="E17" s="3">
-        <v>900</v>
-      </c>
       <c r="F17" s="3">
-        <v>1100</v>
+        <v>128600</v>
       </c>
       <c r="G17" s="3">
-        <v>1000</v>
+        <v>117500</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>124700</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>106600</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>92000</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -998,40 +1022,46 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25100</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="F18" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,48 +1074,52 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-27600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1096,11 +1130,11 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1108,63 +1142,69 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-300</v>
-      </c>
       <c r="F23" s="3">
-        <v>6200</v>
+        <v>-23100</v>
       </c>
       <c r="G23" s="3">
-        <v>-8600</v>
+        <v>-11600</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-8300</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1172,40 +1212,46 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,31 +1282,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-43700</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-34300</v>
       </c>
       <c r="F26" s="3">
-        <v>6200</v>
+        <v>-23300</v>
       </c>
       <c r="G26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-8600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-6300</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1268,31 +1317,34 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-43700</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-34300</v>
       </c>
       <c r="F27" s="3">
-        <v>6200</v>
+        <v>-23300</v>
       </c>
       <c r="G27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-8600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-6300</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1300,8 +1352,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,63 +1492,69 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-43700</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-34300</v>
       </c>
       <c r="F33" s="3">
-        <v>6200</v>
+        <v>-23300</v>
       </c>
       <c r="G33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-8600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-6300</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1492,8 +1562,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,31 +1597,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-43700</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-34300</v>
       </c>
       <c r="F35" s="3">
-        <v>6200</v>
+        <v>-23300</v>
       </c>
       <c r="G35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-8600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-6300</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1556,45 +1632,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
-        <v>43830</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,25 +1704,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>379700</v>
+      </c>
+      <c r="E41" s="3">
         <v>411700</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
+        <v>158500</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
@@ -1653,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,19 +1772,22 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17400</v>
+        <v>14600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>12300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1711,14 +1801,17 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,31 +1842,34 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22200</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>700</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -1781,31 +1877,34 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
@@ -1813,22 +1912,25 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>69500</v>
       </c>
       <c r="E47" s="3">
-        <v>345000</v>
+        <v>92600</v>
       </c>
       <c r="F47" s="3">
-        <v>345000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>345000</v>
+        <v>87100</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -1845,19 +1947,22 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E48" s="3">
         <v>35200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>29300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -1871,25 +1976,28 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>125400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>125400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>125400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -1903,14 +2011,17 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,25 +2087,28 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
+      <c r="F52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2005,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,25 +2157,28 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>655900</v>
+      </c>
+      <c r="E54" s="3">
         <v>689100</v>
       </c>
-      <c r="E54" s="3">
-        <v>345700</v>
-      </c>
       <c r="F54" s="3">
-        <v>345800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>346300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
+        <v>434500</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
@@ -2069,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,19 +2224,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>85300</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -2123,37 +2251,40 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2161,25 +2292,28 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58800</v>
+        <v>113000</v>
       </c>
       <c r="E59" s="3">
-        <v>700</v>
+        <v>128900</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+        <v>97900</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -2193,31 +2327,34 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -2225,19 +2362,22 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E61" s="3">
         <v>138700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>135700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2257,31 +2397,34 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24400</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>35500</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>42800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -2289,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,25 +2537,28 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E66" s="3">
         <v>307200</v>
       </c>
-      <c r="E66" s="3">
-        <v>36300</v>
-      </c>
       <c r="F66" s="3">
-        <v>36100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>42900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
+        <v>256900</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
@@ -2417,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,25 +2727,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-192200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-148500</v>
       </c>
-      <c r="E72" s="3">
-        <v>-35700</v>
-      </c>
       <c r="F72" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
+        <v>-114200</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
@@ -2591,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,25 +2867,28 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>350900</v>
+      </c>
+      <c r="E76" s="3">
         <v>381900</v>
       </c>
-      <c r="E76" s="3">
-        <v>309300</v>
-      </c>
       <c r="F76" s="3">
-        <v>309700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>303500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
+        <v>177600</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
@@ -2719,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,68 +2937,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
-        <v>43830</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-43700</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-34300</v>
       </c>
       <c r="F81" s="3">
-        <v>6200</v>
+        <v>-23300</v>
       </c>
       <c r="G81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-8600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-6300</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -2820,8 +3012,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,31 +3029,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>3200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2866,8 +3062,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,31 +3237,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31200</v>
+        <v>-23800</v>
       </c>
       <c r="E89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+        <v>-15100</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-16400</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3058,8 +3272,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,31 +3289,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-13300</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-7900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-12700</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3104,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,28 +3392,31 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18400</v>
+        <v>-4800</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-345000</v>
+        <v>1500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>-53900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -3200,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,31 +3582,34 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>351800</v>
+        <v>-1300</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>346300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>267100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>42700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3374,8 +3617,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,36 +3652,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>302300</v>
+        <v>-29900</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G102" s="3">
-        <v>600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+        <v>253400</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-27600</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>DOMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,110 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>112200</v>
+      </c>
+      <c r="F8" s="3">
         <v>137700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>162600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>109900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>109200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>117500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>104300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>87000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +802,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +843,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +864,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +901,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +942,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +983,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1024,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1042,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>171700</v>
+      </c>
+      <c r="F17" s="3">
         <v>187600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>187700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>128600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>117500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>124700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>106600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>92000</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-49900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-25100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-18700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,23 +1141,25 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F20" s="3">
         <v>11100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1101,52 +1169,64 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-36200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-27600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1154,104 +1234,122 @@
         <v>4500</v>
       </c>
       <c r="E22" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="F22" s="3">
         <v>4500</v>
       </c>
       <c r="G22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-43300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-34100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-23100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-43700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-34300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-23300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-11800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-43700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-34300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-23300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1506,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1547,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,23 +1629,29 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1521,52 +1661,64 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-43700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-34300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-23300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-43700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-34300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-23300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1877,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>226300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>319400</v>
+      </c>
+      <c r="F41" s="3">
         <v>379700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>411700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>158500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1740,8 +1914,14 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,26 +1955,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F43" s="3">
         <v>14600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
         <v>12300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1804,14 +1990,20 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,8 +2037,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1871,17 +2069,23 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1906,35 +2110,41 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>63900</v>
+      </c>
+      <c r="F47" s="3">
         <v>69500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>92600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>87100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1950,26 +2160,32 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>79500</v>
+      </c>
+      <c r="F48" s="3">
         <v>46000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>35200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>29300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1979,14 +2195,20 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1999,11 +2221,11 @@
       <c r="F49" s="3">
         <v>125400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>125400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>125400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2014,14 +2236,20 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2324,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2125,8 +2365,14 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2406,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>567100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>614400</v>
+      </c>
+      <c r="F54" s="3">
         <v>655900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>689100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>434500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2195,8 +2447,14 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2485,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2254,14 +2516,20 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2286,35 +2554,41 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>133900</v>
+      </c>
+      <c r="F59" s="3">
         <v>113000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>128900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>97900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2330,8 +2604,14 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2356,35 +2636,41 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>144900</v>
+      </c>
+      <c r="F61" s="3">
         <v>141800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>138700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>135700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2686,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2426,17 +2718,23 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2850,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>304800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>302400</v>
+      </c>
+      <c r="F66" s="3">
         <v>305000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>307200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>256900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2575,8 +2891,14 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +3072,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-301300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-242600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-192200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-148500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-114200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2765,8 +3113,14 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3236,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>262300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>312000</v>
+      </c>
+      <c r="F76" s="3">
         <v>350900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>381900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>177600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
       </c>
@@ -2905,8 +3277,14 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-43700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-34300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-23300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,43 +3426,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-23800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-15100</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>-16400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,43 +3730,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-13300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3849,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>1500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-53900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3911,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3948,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +4071,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>267100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>42700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +4153,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-29900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>253400</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>-27600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>DOMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,117 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E8" s="3">
         <v>123700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>112200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>137700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>162600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>109900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>109200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>117500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>104300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>87000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,31 +965,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>33700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E17" s="3">
         <v>183000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>171700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>187600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>187700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>128600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>117500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>124700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>92000</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-59300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-59500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-49900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,26 +1176,27 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1175,69 +1209,75 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-50300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-42400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-36200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4500</v>
       </c>
       <c r="G22" s="3">
         <v>4500</v>
@@ -1246,92 +1286,98 @@
         <v>4500</v>
       </c>
       <c r="I22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J22" s="3">
         <v>3400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
       </c>
       <c r="L22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-83700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-58500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-49800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1339,17 +1385,20 @@
       <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-58700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-50000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-43700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-50000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-43700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,26 +1702,29 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1667,58 +1737,64 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-43700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-43700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1965,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>186400</v>
+      </c>
+      <c r="E41" s="3">
         <v>226300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>319400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>379700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>411700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>158500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,29 +2051,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E43" s="3">
         <v>12900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
         <v>12300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1996,14 +2089,17 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,8 +2139,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2075,8 +2174,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2084,8 +2183,11 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2116,8 +2218,8 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
@@ -2125,29 +2227,32 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E47" s="3">
         <v>102700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>63900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>69500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>87100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2166,29 +2271,32 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E48" s="3">
         <v>87500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>79500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2201,19 +2309,22 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>125400</v>
+        <v>92300</v>
       </c>
       <c r="E49" s="3">
         <v>125400</v>
@@ -2227,8 +2338,8 @@
       <c r="H49" s="3">
         <v>125400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>125400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2242,14 +2353,17 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2339,20 +2459,20 @@
         <v>3000</v>
       </c>
       <c r="E52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2535,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>489200</v>
+      </c>
+      <c r="E54" s="3">
         <v>567100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>614400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>655900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>689100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>434500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2617,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2522,14 +2653,17 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2560,8 +2694,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2569,29 +2703,32 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E59" s="3">
         <v>138100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>133900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>113000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>128900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>97900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2610,8 +2747,11 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2642,8 +2782,8 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
@@ -2651,29 +2791,32 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E61" s="3">
         <v>148100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>144900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>141800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>138700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>135700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2724,8 +2870,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3011,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E66" s="3">
         <v>304800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>302400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>305000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>307200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>256900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3249,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-385400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-301300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-242600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-192200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-148500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>185200</v>
+      </c>
+      <c r="E76" s="3">
         <v>262300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>312000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>350900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>381900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>177600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-43700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,40 +3626,41 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,40 +3888,43 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-44100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-56500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>-16400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,40 +3952,41 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-12700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,38 +4082,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-49100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-53900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,40 +4320,43 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>267100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>42700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4118,8 +4364,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-92900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-61600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>253400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>-27600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>DOMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,130 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>96400</v>
+      </c>
+      <c r="F8" s="3">
         <v>107900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>123700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>112200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>137700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>162600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>109900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>109200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>117500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>104300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>87000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +831,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +881,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +905,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,20 +1001,26 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F14" s="3">
         <v>33700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -994,11 +1033,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1012,8 +1051,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>203800</v>
+      </c>
+      <c r="F17" s="3">
         <v>188400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>183000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>171700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>187600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>187700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>128600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>117500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>124700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>106600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>92000</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-80500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-59300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-59500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-49900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-25100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-18700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,32 +1242,34 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>13900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>11100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1212,193 +1279,223 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-74900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-50300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-42400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-36200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-27600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F22" s="3">
         <v>4600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4200</v>
       </c>
       <c r="G22" s="3">
         <v>4500</v>
       </c>
       <c r="H22" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="I22" s="3">
         <v>4500</v>
       </c>
       <c r="J22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-111400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-83700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-58500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-49800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-43300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-34100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-23100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-84100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-58700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-50000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-43700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-34300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-23300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-84100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-58700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-50000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-43700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-34300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-23300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,32 +1838,38 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-13900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-11100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1740,61 +1879,73 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-84100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-58700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-50000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-43700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-34300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-23300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-84100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-58700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-50000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-43700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-34300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-23300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,35 +2137,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>78500</v>
+      </c>
+      <c r="F41" s="3">
         <v>186400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>226300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>319400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>379700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>411700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>158500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2010,8 +2183,14 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,35 +2233,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F43" s="3">
         <v>10500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>12900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>12500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>14600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>12300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2092,14 +2277,20 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,8 +2333,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2177,17 +2374,23 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2221,44 +2424,50 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>148900</v>
+      </c>
+      <c r="F47" s="3">
         <v>94300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>102700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>63900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>69500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>92600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>87100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2274,35 +2483,41 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F48" s="3">
         <v>91200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>87500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>79500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>46000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>35200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>29300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2312,25 +2527,31 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>60800</v>
+      </c>
+      <c r="F49" s="3">
         <v>92300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>125400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>125400</v>
       </c>
       <c r="G49" s="3">
         <v>125400</v>
@@ -2341,11 +2562,11 @@
       <c r="I49" s="3">
         <v>125400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K49" s="3">
+        <v>125400</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2356,14 +2577,20 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,35 +2683,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2494,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,35 +2783,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>338200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>378500</v>
+      </c>
+      <c r="F54" s="3">
         <v>489200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>567100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>614400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>655900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>689100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>434500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2582,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,35 +2877,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2656,14 +2917,20 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2697,44 +2964,50 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>118900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>120100</v>
+      </c>
+      <c r="F59" s="3">
         <v>136300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>138100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>133900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>113000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>128900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>97900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2750,8 +3023,14 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2785,44 +3064,50 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>154800</v>
+      </c>
+      <c r="F61" s="3">
         <v>151400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>148100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>144900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>141800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>138700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>135700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2838,8 +3123,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2873,17 +3164,23 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,35 +3323,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>292300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>296700</v>
+      </c>
+      <c r="F66" s="3">
         <v>304000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>304800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>302400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>305000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>307200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>256900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3058,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,35 +3593,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-536900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-494800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-385400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-301300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-242600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-192200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-148500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-114200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3296,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,35 +3793,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>81800</v>
+      </c>
+      <c r="F76" s="3">
         <v>185200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>262300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>312000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>350900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>381900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>177600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3472,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-84100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-58700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-50000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-43700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-34300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-23300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F83" s="3">
         <v>4300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-38600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-44100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-56500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-23800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-15100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>-16400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>20000</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-10400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-10100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-13300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-12700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-49100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>1500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-53900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,8 +4808,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4332,43 +4823,49 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>267100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>42700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4908,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-39900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-92900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-61600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-29900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>253400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-27600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>DOMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E8" s="3">
         <v>74400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>96400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>107900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>123700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>112200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>137700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>162600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>109900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>109200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>117500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>104300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>87000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,23 +1024,26 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>63500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>33700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1039,8 +1059,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>118700</v>
+      </c>
+      <c r="E17" s="3">
         <v>111300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>203800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>188400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>183000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>171700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>187600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>187700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>128600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>124700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>106600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>92000</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-107400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-80500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-59300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-59500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-49900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,35 +1277,36 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>13900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1285,87 +1319,93 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-33900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-101800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-74900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-50300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-42400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-27600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4500</v>
       </c>
       <c r="J22" s="3">
         <v>4500</v>
@@ -1374,78 +1414,84 @@
         <v>4500</v>
       </c>
       <c r="L22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M22" s="3">
         <v>3400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1200</v>
       </c>
       <c r="N22" s="3">
         <v>1200</v>
       </c>
       <c r="O22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-111400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-83700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-58500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-49800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1453,31 +1499,31 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
@@ -1485,17 +1531,20 @@
       <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-109400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-84100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-58700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-50000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-109400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-84100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-50000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,35 +1911,38 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-13900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1885,67 +1955,73 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-109400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-84100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-50000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-109400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-84100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-50000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,38 +2225,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E41" s="3">
         <v>81300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>78500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>186400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>226300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>319400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>379700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>411700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,38 +2329,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>12300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2283,14 +2376,17 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2435,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2479,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2389,8 +2488,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,8 +2532,8 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
@@ -2439,38 +2541,41 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E47" s="3">
         <v>120700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>148900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>63900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>69500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>92600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>87100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2489,38 +2594,41 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E48" s="3">
         <v>56100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>58000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>91200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>87500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>79500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2533,28 +2641,31 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>60800</v>
+        <v>29700</v>
       </c>
       <c r="E49" s="3">
         <v>60800</v>
       </c>
       <c r="F49" s="3">
+        <v>60800</v>
+      </c>
+      <c r="G49" s="3">
         <v>92300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>125400</v>
       </c>
       <c r="H49" s="3">
         <v>125400</v>
@@ -2568,8 +2679,8 @@
       <c r="K49" s="3">
         <v>125400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>125400</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -2583,14 +2694,17 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,38 +2806,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2900</v>
+        <v>4900</v>
       </c>
       <c r="E52" s="3">
         <v>2900</v>
       </c>
       <c r="F52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G52" s="3">
         <v>3000</v>
       </c>
       <c r="H52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,38 +2912,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>291300</v>
+      </c>
+      <c r="E54" s="3">
         <v>338200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>378500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>489200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>567100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>614400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>655900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>689100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>434500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,38 +3009,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="E57" s="3">
         <v>2900</v>
       </c>
       <c r="F57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2923,14 +3054,17 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2970,8 +3104,8 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -2979,38 +3113,41 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E59" s="3">
         <v>118900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>120100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>136300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>138100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>133900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>113000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>128900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>97900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3029,8 +3166,11 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,8 +3210,8 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+      <c r="P60" s="3">
+        <v>0</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
@@ -3079,38 +3219,41 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>153200</v>
+      </c>
+      <c r="E61" s="3">
         <v>158200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>154800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>151400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>148100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>144900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>141800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>138700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>135700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3129,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3170,8 +3316,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,38 +3484,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>280600</v>
+      </c>
+      <c r="E66" s="3">
         <v>292300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>296700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>304000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>304800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>302400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>305000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>307200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>256900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,38 +3770,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-572800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-536900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-494800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-385400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-301300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-242600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-192200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-148500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,38 +3982,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E76" s="3">
         <v>45900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>81800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>185200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>262300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>312000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>350900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>381900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>177600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-109400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-84100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-50000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4033,40 +4232,40 @@
         <v>3100</v>
       </c>
       <c r="E83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F83" s="3">
         <v>4800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,49 +4538,52 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-48200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-44100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-56500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>-16400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4403,40 +4624,40 @@
         <v>-2800</v>
       </c>
       <c r="E91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-12700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,47 +4771,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E94" s="3">
         <v>26500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-49100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-53900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,49 +5057,52 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>267100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>42700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-108000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-92900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-61600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-29900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>253400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>-27600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>DOMA</t>
   </si>
@@ -756,7 +756,7 @@
         <v>96400</v>
       </c>
       <c r="G8" s="3">
-        <v>107900</v>
+        <v>97900</v>
       </c>
       <c r="H8" s="3">
         <v>123700</v>
@@ -1166,7 +1166,7 @@
         <v>203800</v>
       </c>
       <c r="G17" s="3">
-        <v>188400</v>
+        <v>134300</v>
       </c>
       <c r="H17" s="3">
         <v>183000</v>
@@ -1219,7 +1219,7 @@
         <v>-107400</v>
       </c>
       <c r="G18" s="3">
-        <v>-80500</v>
+        <v>-36400</v>
       </c>
       <c r="H18" s="3">
         <v>-59300</v>
@@ -1293,7 +1293,7 @@
         <v>800</v>
       </c>
       <c r="G20" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H20" s="3">
         <v>5200</v>
@@ -1346,7 +1346,7 @@
         <v>-101800</v>
       </c>
       <c r="G21" s="3">
-        <v>-74900</v>
+        <v>-30700</v>
       </c>
       <c r="H21" s="3">
         <v>-50300</v>
@@ -1399,7 +1399,7 @@
         <v>4800</v>
       </c>
       <c r="G22" s="3">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="H22" s="3">
         <v>4500</v>
@@ -1452,7 +1452,7 @@
         <v>-111400</v>
       </c>
       <c r="G23" s="3">
-        <v>-83700</v>
+        <v>-38500</v>
       </c>
       <c r="H23" s="3">
         <v>-58500</v>
@@ -1611,7 +1611,7 @@
         <v>-109400</v>
       </c>
       <c r="G26" s="3">
-        <v>-84100</v>
+        <v>-38900</v>
       </c>
       <c r="H26" s="3">
         <v>-58700</v>
@@ -1664,7 +1664,7 @@
         <v>-109400</v>
       </c>
       <c r="G27" s="3">
-        <v>-84100</v>
+        <v>-38900</v>
       </c>
       <c r="H27" s="3">
         <v>-58700</v>
@@ -1760,26 +1760,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-45200</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>-800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H32" s="3">
         <v>-5200</v>
